--- a/Bitacora.xlsx
+++ b/Bitacora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isido\Desktop\html\Experiencia1_VenegasUrrutiaCisternas_004D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isido\Desktop\Prueba\Exp2_CisternasUrrutiaVenegas_004D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99506656-DCF0-48AB-BB6D-347CD338A705}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9098D3-E6F3-491D-AC62-78091BE1E6DB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2712" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{FCDE2450-F88F-495E-B1FA-0A36D45218BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCDE2450-F88F-495E-B1FA-0A36D45218BF}"/>
   </bookViews>
   <sheets>
     <sheet name="BitácoraExperiencia1" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Equipo</t>
   </si>
@@ -54,55 +54,55 @@
     <t>Item Actividad</t>
   </si>
   <si>
-    <t xml:space="preserve">Isidora Urrutia </t>
-  </si>
-  <si>
     <t xml:space="preserve">David Cisternas - Isidora Urrutia -  Jorge Venegas </t>
   </si>
   <si>
     <t>Jorge- Isidora - David</t>
   </si>
   <si>
-    <t xml:space="preserve">Nos reunimos con el equipo para recopilar información </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creacion de la estrcutura del sitio web </t>
-  </si>
-  <si>
     <t>Isidora</t>
   </si>
   <si>
     <t>Jorge</t>
   </si>
   <si>
-    <t>Comienzo creación pagina Quienes Somos</t>
-  </si>
-  <si>
-    <t>Comienzo creación pagina Principal (index)</t>
-  </si>
-  <si>
     <t>David</t>
   </si>
   <si>
-    <t>Comienzo creación pagina Galeria de Fotos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos reunimos para decidir mejoras al sitio web </t>
-  </si>
-  <si>
-    <t>Implementar mejoras en pagina Principal</t>
-  </si>
-  <si>
-    <t>Implementar mejoras en pagina Quienes Somos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementar mejoras en pagina Galeria de fotos </t>
-  </si>
-  <si>
-    <t>Revision de funcionamiento del sitio web (responsive) y  finalizacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nos reunimos para enviar el proyecto y para coordinar presentación </t>
+    <t>Jorge Venegas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos reunimos con el equipo para juntar ideas </t>
+  </si>
+  <si>
+    <t>Isidora - Jorge</t>
+  </si>
+  <si>
+    <t>Creacion de la estrcutura de página Registro</t>
+  </si>
+  <si>
+    <t>Creacion de la estrcutura de página Comentarios</t>
+  </si>
+  <si>
+    <t>Validacion de formulario en página Registro</t>
+  </si>
+  <si>
+    <t>Validacion de formulario en página Comentarios</t>
+  </si>
+  <si>
+    <t>Implementacion de evento de mouse en página Principal (index)</t>
+  </si>
+  <si>
+    <t>Implementacion de evento de mouse en página Registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementacion de la API </t>
+  </si>
+  <si>
+    <t>Corrección de errores y  verificar que este responsive</t>
+  </si>
+  <si>
+    <t>Creación de ultimo commit y envio del trabajo</t>
   </si>
 </sst>
 </file>
@@ -468,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DA7284-98DD-4C9B-85C9-6827807F75AB}">
-  <dimension ref="B2:D17"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
@@ -502,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -521,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
@@ -532,10 +532,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -543,10 +543,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -554,10 +554,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -565,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
@@ -576,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -587,10 +587,10 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -598,10 +598,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -609,10 +609,10 @@
         <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -620,21 +620,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="2">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
